--- a/sample-data/Sadhanand/mavoix_ml_sample_dataset.xlsx
+++ b/sample-data/Sadhanand/mavoix_ml_sample_dataset.xlsx
@@ -4372,22 +4372,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W393"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K393" sqref="K393"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="9" width="9" style="2"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="58.125" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="49" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">

--- a/sample-data/Sadhanand/mavoix_ml_sample_dataset.xlsx
+++ b/sample-data/Sadhanand/mavoix_ml_sample_dataset.xlsx
@@ -4372,8 +4372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="Q58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
